--- a/Kode/Server2/Logs/lora_node1/2020-05-12.xlsx
+++ b/Kode/Server2/Logs/lora_node1/2020-05-12.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1486,6 +1486,6586 @@
         <v>0.6069600000000001</v>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>118</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>0.7575204710879629</v>
+      </c>
+      <c r="C57" t="n">
+        <v>95</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="E57" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.64052</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>119</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>0.7582149009837963</v>
+      </c>
+      <c r="C58" t="n">
+        <v>95</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="E58" t="n">
+        <v>8.504999999999999</v>
+      </c>
+      <c r="F58" t="n">
+        <v>3.67416</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>120</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>0.7589078043518519</v>
+      </c>
+      <c r="C59" t="n">
+        <v>95</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E59" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="F59" t="n">
+        <v>12.078</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>121</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>0.7596019917129628</v>
+      </c>
+      <c r="C60" t="n">
+        <v>95</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.992</v>
+      </c>
+      <c r="E60" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F60" t="n">
+        <v>24.91992</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>122</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>0.7602964747337962</v>
+      </c>
+      <c r="C61" t="n">
+        <v>95</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.128</v>
+      </c>
+      <c r="E61" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="F61" t="n">
+        <v>32.8776</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>123</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>0.7609901312847221</v>
+      </c>
+      <c r="C62" t="n">
+        <v>95</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E62" t="n">
+        <v>16.215</v>
+      </c>
+      <c r="F62" t="n">
+        <v>34.7001</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>124</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>0.7616841239004629</v>
+      </c>
+      <c r="C63" t="n">
+        <v>95</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2.144</v>
+      </c>
+      <c r="E63" t="n">
+        <v>16.125</v>
+      </c>
+      <c r="F63" t="n">
+        <v>34.572</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>125</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>0.7623784937962964</v>
+      </c>
+      <c r="C64" t="n">
+        <v>95</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2.116</v>
+      </c>
+      <c r="E64" t="n">
+        <v>15.405</v>
+      </c>
+      <c r="F64" t="n">
+        <v>32.59698</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>126</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>0.7630724032407408</v>
+      </c>
+      <c r="C65" t="n">
+        <v>95</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2.144</v>
+      </c>
+      <c r="E65" t="n">
+        <v>14.775</v>
+      </c>
+      <c r="F65" t="n">
+        <v>31.6776</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>127</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>0.763766202025463</v>
+      </c>
+      <c r="C66" t="n">
+        <v>95</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2.132</v>
+      </c>
+      <c r="E66" t="n">
+        <v>14.31</v>
+      </c>
+      <c r="F66" t="n">
+        <v>30.50892</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>128</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>0.7644605551736111</v>
+      </c>
+      <c r="C67" t="n">
+        <v>95</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E67" t="n">
+        <v>13.875</v>
+      </c>
+      <c r="F67" t="n">
+        <v>29.6925</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>129</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>0.7651544351851852</v>
+      </c>
+      <c r="C68" t="n">
+        <v>95</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E68" t="n">
+        <v>13.545</v>
+      </c>
+      <c r="F68" t="n">
+        <v>28.7154</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>130</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>0.7658486259953704</v>
+      </c>
+      <c r="C69" t="n">
+        <v>95</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E69" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="F69" t="n">
+        <v>29.211</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>131</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>0.7665425848032407</v>
+      </c>
+      <c r="C70" t="n">
+        <v>95</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2.104</v>
+      </c>
+      <c r="E70" t="n">
+        <v>13.38</v>
+      </c>
+      <c r="F70" t="n">
+        <v>28.15152</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>132</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>0.7672365536342594</v>
+      </c>
+      <c r="C71" t="n">
+        <v>95</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.064</v>
+      </c>
+      <c r="E71" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="F71" t="n">
+        <v>27.36864</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>133</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>0.7679323696296296</v>
+      </c>
+      <c r="C72" t="n">
+        <v>95</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2.112</v>
+      </c>
+      <c r="E72" t="n">
+        <v>13.455</v>
+      </c>
+      <c r="F72" t="n">
+        <v>28.41696</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>134</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>0.7686241167939815</v>
+      </c>
+      <c r="C73" t="n">
+        <v>95</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.132</v>
+      </c>
+      <c r="E73" t="n">
+        <v>14.055</v>
+      </c>
+      <c r="F73" t="n">
+        <v>29.96526</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>135</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>0.7693184398842592</v>
+      </c>
+      <c r="C74" t="n">
+        <v>95</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E74" t="n">
+        <v>13.935</v>
+      </c>
+      <c r="F74" t="n">
+        <v>29.5422</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>136</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>0.7700130887384259</v>
+      </c>
+      <c r="C75" t="n">
+        <v>95</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2.112</v>
+      </c>
+      <c r="E75" t="n">
+        <v>15.765</v>
+      </c>
+      <c r="F75" t="n">
+        <v>33.29568</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>137</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>0.7707064581365741</v>
+      </c>
+      <c r="C76" t="n">
+        <v>95</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.128</v>
+      </c>
+      <c r="E76" t="n">
+        <v>16.995</v>
+      </c>
+      <c r="F76" t="n">
+        <v>36.16536000000001</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>138</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>0.7714015551620371</v>
+      </c>
+      <c r="C77" t="n">
+        <v>95</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.136</v>
+      </c>
+      <c r="E77" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="F77" t="n">
+        <v>36.07704</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>139</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>0.7720944332060186</v>
+      </c>
+      <c r="C78" t="n">
+        <v>95</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2.068</v>
+      </c>
+      <c r="E78" t="n">
+        <v>17.745</v>
+      </c>
+      <c r="F78" t="n">
+        <v>36.69666</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>140</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>0.7727887949652779</v>
+      </c>
+      <c r="C79" t="n">
+        <v>95</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E79" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="F79" t="n">
+        <v>36.729</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>141</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>0.773483792349537</v>
+      </c>
+      <c r="C80" t="n">
+        <v>95</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2.088</v>
+      </c>
+      <c r="E80" t="n">
+        <v>16.215</v>
+      </c>
+      <c r="F80" t="n">
+        <v>33.85692</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>142</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>0.7741787235416667</v>
+      </c>
+      <c r="C81" t="n">
+        <v>95</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2.152</v>
+      </c>
+      <c r="E81" t="n">
+        <v>15.255</v>
+      </c>
+      <c r="F81" t="n">
+        <v>32.82876</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>143</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>0.7748709603472222</v>
+      </c>
+      <c r="C82" t="n">
+        <v>95</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="E82" t="n">
+        <v>14.655</v>
+      </c>
+      <c r="F82" t="n">
+        <v>31.12722</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>144</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>0.7755654789236111</v>
+      </c>
+      <c r="C83" t="n">
+        <v>95</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E83" t="n">
+        <v>14.625</v>
+      </c>
+      <c r="F83" t="n">
+        <v>31.2975</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>145</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>0.776258652800926</v>
+      </c>
+      <c r="C84" t="n">
+        <v>95</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E84" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="F84" t="n">
+        <v>30.4644</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>146</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>0.7769531910763889</v>
+      </c>
+      <c r="C85" t="n">
+        <v>95</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2.112</v>
+      </c>
+      <c r="E85" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="F85" t="n">
+        <v>29.96928</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>147</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>0.7776473561342593</v>
+      </c>
+      <c r="C86" t="n">
+        <v>95</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2.104</v>
+      </c>
+      <c r="E86" t="n">
+        <v>13.875</v>
+      </c>
+      <c r="F86" t="n">
+        <v>29.193</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>148</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>0.7783416418287037</v>
+      </c>
+      <c r="C87" t="n">
+        <v>95</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="E87" t="n">
+        <v>14.445</v>
+      </c>
+      <c r="F87" t="n">
+        <v>30.68118</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>149</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>0.7790351602083333</v>
+      </c>
+      <c r="C88" t="n">
+        <v>95</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2.132</v>
+      </c>
+      <c r="E88" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="F88" t="n">
+        <v>35.30592</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>150</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>0.7797293897800927</v>
+      </c>
+      <c r="C89" t="n">
+        <v>95</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2.128</v>
+      </c>
+      <c r="E89" t="n">
+        <v>17.385</v>
+      </c>
+      <c r="F89" t="n">
+        <v>36.99528</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>151</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>0.7804224224884259</v>
+      </c>
+      <c r="C90" t="n">
+        <v>95</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2.132</v>
+      </c>
+      <c r="E90" t="n">
+        <v>16.065</v>
+      </c>
+      <c r="F90" t="n">
+        <v>34.25058</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>152</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>0.7811175812847222</v>
+      </c>
+      <c r="C91" t="n">
+        <v>95</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="E91" t="n">
+        <v>13.815</v>
+      </c>
+      <c r="F91" t="n">
+        <v>29.34306</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>153</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>0.7818115916319445</v>
+      </c>
+      <c r="C92" t="n">
+        <v>95</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2.068</v>
+      </c>
+      <c r="E92" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="F92" t="n">
+        <v>26.9874</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>154</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>0.782505762210648</v>
+      </c>
+      <c r="C93" t="n">
+        <v>95</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2.132</v>
+      </c>
+      <c r="E93" t="n">
+        <v>14.175</v>
+      </c>
+      <c r="F93" t="n">
+        <v>30.2211</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>155</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>0.7831992113078704</v>
+      </c>
+      <c r="C94" t="n">
+        <v>95</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2.088</v>
+      </c>
+      <c r="E94" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="F94" t="n">
+        <v>28.12536</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>156</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>0.7838957808333333</v>
+      </c>
+      <c r="C95" t="n">
+        <v>95</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2.104</v>
+      </c>
+      <c r="E95" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="F95" t="n">
+        <v>28.90896</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>157</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>0.7845872833912038</v>
+      </c>
+      <c r="C96" t="n">
+        <v>95</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2.116</v>
+      </c>
+      <c r="E96" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="F96" t="n">
+        <v>30.59736</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>158</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>0.7852836155787037</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E97" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="F97" t="n">
+        <v>31.878</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>159</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>0.7859747705092592</v>
+      </c>
+      <c r="C98" t="n">
+        <v>95</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2.108</v>
+      </c>
+      <c r="E98" t="n">
+        <v>15.555</v>
+      </c>
+      <c r="F98" t="n">
+        <v>32.78994</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>160</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>0.78666983375</v>
+      </c>
+      <c r="C99" t="n">
+        <v>95</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2.184</v>
+      </c>
+      <c r="E99" t="n">
+        <v>14.835</v>
+      </c>
+      <c r="F99" t="n">
+        <v>32.39964</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>161</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>0.7873643297916666</v>
+      </c>
+      <c r="C100" t="n">
+        <v>95</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2.136</v>
+      </c>
+      <c r="E100" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="F100" t="n">
+        <v>30.95064</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>162</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>0.7880597178703704</v>
+      </c>
+      <c r="C101" t="n">
+        <v>95</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2.152</v>
+      </c>
+      <c r="E101" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="F101" t="n">
+        <v>31.56984</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>163</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>0.7887524359143518</v>
+      </c>
+      <c r="C102" t="n">
+        <v>95</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E102" t="n">
+        <v>14.985</v>
+      </c>
+      <c r="F102" t="n">
+        <v>32.0679</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>164</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>0.7894464304976853</v>
+      </c>
+      <c r="C103" t="n">
+        <v>95</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2.156</v>
+      </c>
+      <c r="E103" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="F103" t="n">
+        <v>31.95192</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>165</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>0.7901404640624999</v>
+      </c>
+      <c r="C104" t="n">
+        <v>95</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>166</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>0.7908350680208334</v>
+      </c>
+      <c r="C105" t="n">
+        <v>95</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2.024</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>168</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>0.7922225696874999</v>
+      </c>
+      <c r="C106" t="n">
+        <v>95</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2.184</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>169</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>0.7929179037962962</v>
+      </c>
+      <c r="C107" t="n">
+        <v>95</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2.164</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>170</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>0.7936116126967592</v>
+      </c>
+      <c r="C108" t="n">
+        <v>95</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2.156</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>171</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>0.7943160829398148</v>
+      </c>
+      <c r="C109" t="n">
+        <v>95</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2.148</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>172</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>0.7949991762268519</v>
+      </c>
+      <c r="C110" t="n">
+        <v>95</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2.136</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>173</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>0.7956951373379629</v>
+      </c>
+      <c r="C111" t="n">
+        <v>95</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>174</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>0.7963872264236111</v>
+      </c>
+      <c r="C112" t="n">
+        <v>95</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2.044</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>175</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>0.7970810601851852</v>
+      </c>
+      <c r="C113" t="n">
+        <v>95</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.996</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>176</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>0.7977756192939814</v>
+      </c>
+      <c r="C114" t="n">
+        <v>95</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>177</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>0.7984701550925926</v>
+      </c>
+      <c r="C115" t="n">
+        <v>95</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2.072</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>178</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>0.7991629661226852</v>
+      </c>
+      <c r="C116" t="n">
+        <v>95</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.996</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>179</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>0.7998589513541667</v>
+      </c>
+      <c r="C117" t="n">
+        <v>95</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>180</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>0.8005540431018519</v>
+      </c>
+      <c r="C118" t="n">
+        <v>95</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2.048</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>181</v>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>0.801245688900463</v>
+      </c>
+      <c r="C119" t="n">
+        <v>95</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2.112</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>182</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>0.8019401752314814</v>
+      </c>
+      <c r="C120" t="n">
+        <v>95</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>183</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>0.8026339730902777</v>
+      </c>
+      <c r="C121" t="n">
+        <v>95</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>184</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>0.8033278670717593</v>
+      </c>
+      <c r="C122" t="n">
+        <v>95</v>
+      </c>
+      <c r="D122" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>185</v>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>0.804022453923611</v>
+      </c>
+      <c r="C123" t="n">
+        <v>95</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>186</v>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>0.8047164043171297</v>
+      </c>
+      <c r="C124" t="n">
+        <v>95</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>187</v>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>0.8054097687152777</v>
+      </c>
+      <c r="C125" t="n">
+        <v>95</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>188</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>0.8061046905671296</v>
+      </c>
+      <c r="C126" t="n">
+        <v>95</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>189</v>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>0.8067988297106482</v>
+      </c>
+      <c r="C127" t="n">
+        <v>95</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>190</v>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>0.807494935162037</v>
+      </c>
+      <c r="C128" t="n">
+        <v>95</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>191</v>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>0.8081876494328705</v>
+      </c>
+      <c r="C129" t="n">
+        <v>95</v>
+      </c>
+      <c r="D129" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>192</v>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>0.8088798713194444</v>
+      </c>
+      <c r="C130" t="n">
+        <v>95</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2.164</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>194</v>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>0.8102691355208335</v>
+      </c>
+      <c r="C131" t="n">
+        <v>95</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>195</v>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>0.810963544386574</v>
+      </c>
+      <c r="C132" t="n">
+        <v>95</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2.208</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>196</v>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>0.8116571219791666</v>
+      </c>
+      <c r="C133" t="n">
+        <v>95</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2.156</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>198</v>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>0.813045352488426</v>
+      </c>
+      <c r="C134" t="n">
+        <v>95</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>199</v>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>0.8137393927546297</v>
+      </c>
+      <c r="C135" t="n">
+        <v>95</v>
+      </c>
+      <c r="D135" t="n">
+        <v>2.112</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>200</v>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>0.8144370225115741</v>
+      </c>
+      <c r="C136" t="n">
+        <v>95</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2.144</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>201</v>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>0.8151279472337962</v>
+      </c>
+      <c r="C137" t="n">
+        <v>95</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>202</v>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>0.8158215950115741</v>
+      </c>
+      <c r="C138" t="n">
+        <v>95</v>
+      </c>
+      <c r="D138" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>203</v>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>0.8165159460416667</v>
+      </c>
+      <c r="C139" t="n">
+        <v>95</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>205</v>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>0.817904996412037</v>
+      </c>
+      <c r="C140" t="n">
+        <v>95</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>206</v>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>0.8185975972685186</v>
+      </c>
+      <c r="C141" t="n">
+        <v>95</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2.152</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>207</v>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>0.8192919024652777</v>
+      </c>
+      <c r="C142" t="n">
+        <v>95</v>
+      </c>
+      <c r="D142" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>208</v>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>0.8199849164699075</v>
+      </c>
+      <c r="C143" t="n">
+        <v>95</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2.152</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>209</v>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>0.8206795018634259</v>
+      </c>
+      <c r="C144" t="n">
+        <v>95</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>210</v>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>0.8213736821412037</v>
+      </c>
+      <c r="C145" t="n">
+        <v>95</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2.208</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>211</v>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>0.8220674138078704</v>
+      </c>
+      <c r="C146" t="n">
+        <v>95</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2.144</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>212</v>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>0.8227611535763888</v>
+      </c>
+      <c r="C147" t="n">
+        <v>95</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>213</v>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>0.8234557148958332</v>
+      </c>
+      <c r="C148" t="n">
+        <v>95</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2.144</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>214</v>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>0.8241498641666667</v>
+      </c>
+      <c r="C149" t="n">
+        <v>95</v>
+      </c>
+      <c r="D149" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>215</v>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>0.824843653599537</v>
+      </c>
+      <c r="C150" t="n">
+        <v>95</v>
+      </c>
+      <c r="D150" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>216</v>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>0.8255378367708333</v>
+      </c>
+      <c r="C151" t="n">
+        <v>95</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>217</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>0.8262315472106482</v>
+      </c>
+      <c r="C152" t="n">
+        <v>95</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>218</v>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>0.8269255753819443</v>
+      </c>
+      <c r="C153" t="n">
+        <v>95</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2.156</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>219</v>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>0.8276209309375</v>
+      </c>
+      <c r="C154" t="n">
+        <v>95</v>
+      </c>
+      <c r="D154" t="n">
+        <v>2.116</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>220</v>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>0.8283138272800926</v>
+      </c>
+      <c r="C155" t="n">
+        <v>95</v>
+      </c>
+      <c r="D155" t="n">
+        <v>2.084</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>221</v>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>0.8290081801273148</v>
+      </c>
+      <c r="C156" t="n">
+        <v>95</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>222</v>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>0.8297031499537036</v>
+      </c>
+      <c r="C157" t="n">
+        <v>95</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.984</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>223</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>0.8303961824768518</v>
+      </c>
+      <c r="C158" t="n">
+        <v>95</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>224</v>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>0.8310902576157407</v>
+      </c>
+      <c r="C159" t="n">
+        <v>95</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>225</v>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>0.8317843798263889</v>
+      </c>
+      <c r="C160" t="n">
+        <v>95</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.984</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>226</v>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>0.8324784227546296</v>
+      </c>
+      <c r="C161" t="n">
+        <v>95</v>
+      </c>
+      <c r="D161" t="n">
+        <v>2.056</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>227</v>
+      </c>
+      <c r="B162" s="1" t="n">
+        <v>0.8331721065162037</v>
+      </c>
+      <c r="C162" t="n">
+        <v>95</v>
+      </c>
+      <c r="D162" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>229</v>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>0.8345607130208335</v>
+      </c>
+      <c r="C163" t="n">
+        <v>95</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>230</v>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>0.8352544888773148</v>
+      </c>
+      <c r="C164" t="n">
+        <v>95</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.936</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>231</v>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>0.8359488098032408</v>
+      </c>
+      <c r="C165" t="n">
+        <v>95</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>232</v>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>0.8366424332986111</v>
+      </c>
+      <c r="C166" t="n">
+        <v>95</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>233</v>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>0.8373368230439815</v>
+      </c>
+      <c r="C167" t="n">
+        <v>95</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>234</v>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>0.8380308416550927</v>
+      </c>
+      <c r="C168" t="n">
+        <v>95</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>235</v>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>0.8387249443402779</v>
+      </c>
+      <c r="C169" t="n">
+        <v>95</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>236</v>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>0.8394233045601851</v>
+      </c>
+      <c r="C170" t="n">
+        <v>95</v>
+      </c>
+      <c r="D170" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>237</v>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>0.8401129309953704</v>
+      </c>
+      <c r="C171" t="n">
+        <v>95</v>
+      </c>
+      <c r="D171" t="n">
+        <v>2.196</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>239</v>
+      </c>
+      <c r="B172" s="1" t="n">
+        <v>0.8415012062037037</v>
+      </c>
+      <c r="C172" t="n">
+        <v>95</v>
+      </c>
+      <c r="D172" t="n">
+        <v>2.228</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>240</v>
+      </c>
+      <c r="B173" s="1" t="n">
+        <v>0.8421955498958333</v>
+      </c>
+      <c r="C173" t="n">
+        <v>95</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.528</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>241</v>
+      </c>
+      <c r="B174" s="1" t="n">
+        <v>0.8428894071412036</v>
+      </c>
+      <c r="C174" t="n">
+        <v>95</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.148</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>242</v>
+      </c>
+      <c r="B175" s="1" t="n">
+        <v>0.8435847401273148</v>
+      </c>
+      <c r="C175" t="n">
+        <v>95</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>243</v>
+      </c>
+      <c r="B176" s="1" t="n">
+        <v>0.8442784797222223</v>
+      </c>
+      <c r="C176" t="n">
+        <v>95</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>244</v>
+      </c>
+      <c r="B177" s="1" t="n">
+        <v>0.8449718447800927</v>
+      </c>
+      <c r="C177" t="n">
+        <v>95</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>245</v>
+      </c>
+      <c r="B178" s="1" t="n">
+        <v>0.8456656615046296</v>
+      </c>
+      <c r="C178" t="n">
+        <v>95</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.548</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>246</v>
+      </c>
+      <c r="B179" s="1" t="n">
+        <v>0.8463602419907408</v>
+      </c>
+      <c r="C179" t="n">
+        <v>95</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>247</v>
+      </c>
+      <c r="B180" s="1" t="n">
+        <v>0.8470535048032407</v>
+      </c>
+      <c r="C180" t="n">
+        <v>95</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>248</v>
+      </c>
+      <c r="B181" s="1" t="n">
+        <v>0.8477479551041666</v>
+      </c>
+      <c r="C181" t="n">
+        <v>95</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>249</v>
+      </c>
+      <c r="B182" s="1" t="n">
+        <v>0.8484418624305555</v>
+      </c>
+      <c r="C182" t="n">
+        <v>95</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>250</v>
+      </c>
+      <c r="B183" s="1" t="n">
+        <v>0.8491358074421297</v>
+      </c>
+      <c r="C183" t="n">
+        <v>95</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>252</v>
+      </c>
+      <c r="B184" s="1" t="n">
+        <v>0.8505240727083334</v>
+      </c>
+      <c r="C184" t="n">
+        <v>95</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>253</v>
+      </c>
+      <c r="B185" s="1" t="n">
+        <v>0.8512181123032407</v>
+      </c>
+      <c r="C185" t="n">
+        <v>95</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>254</v>
+      </c>
+      <c r="B186" s="1" t="n">
+        <v>0.8519123466898149</v>
+      </c>
+      <c r="C186" t="n">
+        <v>95</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0</v>
+      </c>
+      <c r="B187" s="1" t="n">
+        <v>0.8526069753125</v>
+      </c>
+      <c r="C187" t="n">
+        <v>95</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1</v>
+      </c>
+      <c r="B188" s="1" t="n">
+        <v>0.8533008976157407</v>
+      </c>
+      <c r="C188" t="n">
+        <v>95</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>2</v>
+      </c>
+      <c r="B189" s="1" t="n">
+        <v>0.8539945183680555</v>
+      </c>
+      <c r="C189" t="n">
+        <v>95</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>3</v>
+      </c>
+      <c r="B190" s="1" t="n">
+        <v>0.8546890248495371</v>
+      </c>
+      <c r="C190" t="n">
+        <v>95</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.07200000000000001</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>4</v>
+      </c>
+      <c r="B191" s="1" t="n">
+        <v>0.8553828411921296</v>
+      </c>
+      <c r="C191" t="n">
+        <v>95</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>5</v>
+      </c>
+      <c r="B192" s="1" t="n">
+        <v>0.8560805396643518</v>
+      </c>
+      <c r="C192" t="n">
+        <v>95</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>6</v>
+      </c>
+      <c r="B193" s="1" t="n">
+        <v>0.8567708661689816</v>
+      </c>
+      <c r="C193" t="n">
+        <v>95</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>7</v>
+      </c>
+      <c r="B194" s="1" t="n">
+        <v>0.857464890150463</v>
+      </c>
+      <c r="C194" t="n">
+        <v>95</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>8</v>
+      </c>
+      <c r="B195" s="1" t="n">
+        <v>0.8581603778009259</v>
+      </c>
+      <c r="C195" t="n">
+        <v>95</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>9</v>
+      </c>
+      <c r="B196" s="1" t="n">
+        <v>0.8588534285532408</v>
+      </c>
+      <c r="C196" t="n">
+        <v>95</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>10</v>
+      </c>
+      <c r="B197" s="1" t="n">
+        <v>0.859547132511574</v>
+      </c>
+      <c r="C197" t="n">
+        <v>95</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>11</v>
+      </c>
+      <c r="B198" s="1" t="n">
+        <v>0.8602414580208334</v>
+      </c>
+      <c r="C198" t="n">
+        <v>95</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>12</v>
+      </c>
+      <c r="B199" s="1" t="n">
+        <v>0.8609358737731482</v>
+      </c>
+      <c r="C199" t="n">
+        <v>95</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>13</v>
+      </c>
+      <c r="B200" s="1" t="n">
+        <v>0.8616296985300926</v>
+      </c>
+      <c r="C200" t="n">
+        <v>95</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>14</v>
+      </c>
+      <c r="B201" s="1" t="n">
+        <v>0.8623233405555555</v>
+      </c>
+      <c r="C201" t="n">
+        <v>95</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>15</v>
+      </c>
+      <c r="B202" s="1" t="n">
+        <v>0.8630180070949074</v>
+      </c>
+      <c r="C202" t="n">
+        <v>95</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>16</v>
+      </c>
+      <c r="B203" s="1" t="n">
+        <v>0.8637115782407407</v>
+      </c>
+      <c r="C203" t="n">
+        <v>95</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>17</v>
+      </c>
+      <c r="B204" s="1" t="n">
+        <v>0.8644058790740741</v>
+      </c>
+      <c r="C204" t="n">
+        <v>95</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" s="1" t="n">
+        <v>0.8651000732754629</v>
+      </c>
+      <c r="C205" t="n">
+        <v>95</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>19</v>
+      </c>
+      <c r="B206" s="1" t="n">
+        <v>0.8657941891782408</v>
+      </c>
+      <c r="C206" t="n">
+        <v>95</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>20</v>
+      </c>
+      <c r="B207" s="1" t="n">
+        <v>0.8664883023842592</v>
+      </c>
+      <c r="C207" t="n">
+        <v>95</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>21</v>
+      </c>
+      <c r="B208" s="1" t="n">
+        <v>0.8671822777893519</v>
+      </c>
+      <c r="C208" t="n">
+        <v>95</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>23</v>
+      </c>
+      <c r="B209" s="1" t="n">
+        <v>0.8685705424189815</v>
+      </c>
+      <c r="C209" t="n">
+        <v>95</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>24</v>
+      </c>
+      <c r="B210" s="1" t="n">
+        <v>0.8692643666898148</v>
+      </c>
+      <c r="C210" t="n">
+        <v>95</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>25</v>
+      </c>
+      <c r="B211" s="1" t="n">
+        <v>0.8699583074189815</v>
+      </c>
+      <c r="C211" t="n">
+        <v>95</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>26</v>
+      </c>
+      <c r="B212" s="1" t="n">
+        <v>0.8706524650810185</v>
+      </c>
+      <c r="C212" t="n">
+        <v>95</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>27</v>
+      </c>
+      <c r="B213" s="1" t="n">
+        <v>0.8713465422106482</v>
+      </c>
+      <c r="C213" t="n">
+        <v>95</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>28</v>
+      </c>
+      <c r="B214" s="1" t="n">
+        <v>0.872041175462963</v>
+      </c>
+      <c r="C214" t="n">
+        <v>95</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>29</v>
+      </c>
+      <c r="B215" s="1" t="n">
+        <v>0.8727345944675926</v>
+      </c>
+      <c r="C215" t="n">
+        <v>95</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>30</v>
+      </c>
+      <c r="B216" s="1" t="n">
+        <v>0.8734292252662037</v>
+      </c>
+      <c r="C216" t="n">
+        <v>95</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>31</v>
+      </c>
+      <c r="B217" s="1" t="n">
+        <v>0.8741232683796296</v>
+      </c>
+      <c r="C217" t="n">
+        <v>95</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>32</v>
+      </c>
+      <c r="B218" s="1" t="n">
+        <v>0.8748172680092593</v>
+      </c>
+      <c r="C218" t="n">
+        <v>95</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>34</v>
+      </c>
+      <c r="B219" s="1" t="n">
+        <v>0.876205162662037</v>
+      </c>
+      <c r="C219" t="n">
+        <v>95</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>35</v>
+      </c>
+      <c r="B220" s="1" t="n">
+        <v>0.8769003709375001</v>
+      </c>
+      <c r="C220" t="n">
+        <v>95</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>36</v>
+      </c>
+      <c r="B221" s="1" t="n">
+        <v>0.8775945574537037</v>
+      </c>
+      <c r="C221" t="n">
+        <v>95</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>37</v>
+      </c>
+      <c r="B222" s="1" t="n">
+        <v>0.8782874591898148</v>
+      </c>
+      <c r="C222" t="n">
+        <v>95</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>38</v>
+      </c>
+      <c r="B223" s="1" t="n">
+        <v>0.8789820076620369</v>
+      </c>
+      <c r="C223" t="n">
+        <v>95</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>39</v>
+      </c>
+      <c r="B224" s="1" t="n">
+        <v>0.8796755080555556</v>
+      </c>
+      <c r="C224" t="n">
+        <v>95</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>40</v>
+      </c>
+      <c r="B225" s="1" t="n">
+        <v>0.8803694117592593</v>
+      </c>
+      <c r="C225" t="n">
+        <v>95</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>41</v>
+      </c>
+      <c r="B226" s="1" t="n">
+        <v>0.88106385875</v>
+      </c>
+      <c r="C226" t="n">
+        <v>95</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>42</v>
+      </c>
+      <c r="B227" s="1" t="n">
+        <v>0.8817577068865741</v>
+      </c>
+      <c r="C227" t="n">
+        <v>95</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>43</v>
+      </c>
+      <c r="B228" s="1" t="n">
+        <v>0.8824520600810185</v>
+      </c>
+      <c r="C228" t="n">
+        <v>95</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>44</v>
+      </c>
+      <c r="B229" s="1" t="n">
+        <v>0.883148021238426</v>
+      </c>
+      <c r="C229" t="n">
+        <v>95</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>45</v>
+      </c>
+      <c r="B230" s="1" t="n">
+        <v>0.8838398676041667</v>
+      </c>
+      <c r="C230" t="n">
+        <v>95</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>46</v>
+      </c>
+      <c r="B231" s="1" t="n">
+        <v>0.8845341298958334</v>
+      </c>
+      <c r="C231" t="n">
+        <v>95</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>47</v>
+      </c>
+      <c r="B232" s="1" t="n">
+        <v>0.8852280222222222</v>
+      </c>
+      <c r="C232" t="n">
+        <v>95</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>48</v>
+      </c>
+      <c r="B233" s="1" t="n">
+        <v>0.8859227801620371</v>
+      </c>
+      <c r="C233" t="n">
+        <v>95</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>49</v>
+      </c>
+      <c r="B234" s="1" t="n">
+        <v>0.8866161559606482</v>
+      </c>
+      <c r="C234" t="n">
+        <v>95</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.07200000000000001</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>50</v>
+      </c>
+      <c r="B235" s="1" t="n">
+        <v>0.8873113166087964</v>
+      </c>
+      <c r="C235" t="n">
+        <v>95</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.07200000000000001</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>51</v>
+      </c>
+      <c r="B236" s="1" t="n">
+        <v>0.8880042245370371</v>
+      </c>
+      <c r="C236" t="n">
+        <v>95</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.07200000000000001</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>52</v>
+      </c>
+      <c r="B237" s="1" t="n">
+        <v>0.8886984133333334</v>
+      </c>
+      <c r="C237" t="n">
+        <v>95</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>53</v>
+      </c>
+      <c r="B238" s="1" t="n">
+        <v>0.8893945829629629</v>
+      </c>
+      <c r="C238" t="n">
+        <v>94</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>54</v>
+      </c>
+      <c r="B239" s="1" t="n">
+        <v>0.8900863980324074</v>
+      </c>
+      <c r="C239" t="n">
+        <v>95</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>55</v>
+      </c>
+      <c r="B240" s="1" t="n">
+        <v>0.8907808711342593</v>
+      </c>
+      <c r="C240" t="n">
+        <v>95</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>56</v>
+      </c>
+      <c r="B241" s="1" t="n">
+        <v>0.8914751024768519</v>
+      </c>
+      <c r="C241" t="n">
+        <v>95</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>58</v>
+      </c>
+      <c r="B242" s="1" t="n">
+        <v>0.8928634148379631</v>
+      </c>
+      <c r="C242" t="n">
+        <v>95</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>59</v>
+      </c>
+      <c r="B243" s="1" t="n">
+        <v>0.893557269039352</v>
+      </c>
+      <c r="C243" t="n">
+        <v>95</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>60</v>
+      </c>
+      <c r="B244" s="1" t="n">
+        <v>0.8942513056134258</v>
+      </c>
+      <c r="C244" t="n">
+        <v>95</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>61</v>
+      </c>
+      <c r="B245" s="1" t="n">
+        <v>0.8949460493055554</v>
+      </c>
+      <c r="C245" t="n">
+        <v>95</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>62</v>
+      </c>
+      <c r="B246" s="1" t="n">
+        <v>0.8956392825</v>
+      </c>
+      <c r="C246" t="n">
+        <v>95</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>63</v>
+      </c>
+      <c r="B247" s="1" t="n">
+        <v>0.8963332790162037</v>
+      </c>
+      <c r="C247" t="n">
+        <v>95</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>64</v>
+      </c>
+      <c r="B248" s="1" t="n">
+        <v>0.8970301116666667</v>
+      </c>
+      <c r="C248" t="n">
+        <v>94</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>65</v>
+      </c>
+      <c r="B249" s="1" t="n">
+        <v>0.8977220292939814</v>
+      </c>
+      <c r="C249" t="n">
+        <v>95</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>66</v>
+      </c>
+      <c r="B250" s="1" t="n">
+        <v>0.8984159535185186</v>
+      </c>
+      <c r="C250" t="n">
+        <v>94</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>67</v>
+      </c>
+      <c r="B251" s="1" t="n">
+        <v>0.8991095820023147</v>
+      </c>
+      <c r="C251" t="n">
+        <v>95</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>68</v>
+      </c>
+      <c r="B252" s="1" t="n">
+        <v>0.899803792650463</v>
+      </c>
+      <c r="C252" t="n">
+        <v>94</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>69</v>
+      </c>
+      <c r="B253" s="1" t="n">
+        <v>0.9004977287384259</v>
+      </c>
+      <c r="C253" t="n">
+        <v>94</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>70</v>
+      </c>
+      <c r="B254" s="1" t="n">
+        <v>0.9011922582407407</v>
+      </c>
+      <c r="C254" t="n">
+        <v>94</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>71</v>
+      </c>
+      <c r="B255" s="1" t="n">
+        <v>0.9018870033217593</v>
+      </c>
+      <c r="C255" t="n">
+        <v>94</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>73</v>
+      </c>
+      <c r="B256" s="1" t="n">
+        <v>0.9032744961921296</v>
+      </c>
+      <c r="C256" t="n">
+        <v>94</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>74</v>
+      </c>
+      <c r="B257" s="1" t="n">
+        <v>0.9039685560648147</v>
+      </c>
+      <c r="C257" t="n">
+        <v>94</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>75</v>
+      </c>
+      <c r="B258" s="1" t="n">
+        <v>0.9046622877199073</v>
+      </c>
+      <c r="C258" t="n">
+        <v>94</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>76</v>
+      </c>
+      <c r="B259" s="1" t="n">
+        <v>0.905356338900463</v>
+      </c>
+      <c r="C259" t="n">
+        <v>94</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>77</v>
+      </c>
+      <c r="B260" s="1" t="n">
+        <v>0.9060503551504631</v>
+      </c>
+      <c r="C260" t="n">
+        <v>94</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>78</v>
+      </c>
+      <c r="B261" s="1" t="n">
+        <v>0.9067444401157408</v>
+      </c>
+      <c r="C261" t="n">
+        <v>94</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>79</v>
+      </c>
+      <c r="B262" s="1" t="n">
+        <v>0.9074387337962964</v>
+      </c>
+      <c r="C262" t="n">
+        <v>94</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>80</v>
+      </c>
+      <c r="B263" s="1" t="n">
+        <v>0.9081326955208333</v>
+      </c>
+      <c r="C263" t="n">
+        <v>94</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>81</v>
+      </c>
+      <c r="B264" s="1" t="n">
+        <v>0.9088266879513889</v>
+      </c>
+      <c r="C264" t="n">
+        <v>94</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>82</v>
+      </c>
+      <c r="B265" s="1" t="n">
+        <v>0.909520638136574</v>
+      </c>
+      <c r="C265" t="n">
+        <v>94</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>83</v>
+      </c>
+      <c r="B266" s="1" t="n">
+        <v>0.910215021550926</v>
+      </c>
+      <c r="C266" t="n">
+        <v>94</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>84</v>
+      </c>
+      <c r="B267" s="1" t="n">
+        <v>0.9109087693518518</v>
+      </c>
+      <c r="C267" t="n">
+        <v>94</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>85</v>
+      </c>
+      <c r="B268" s="1" t="n">
+        <v>0.9116033157986111</v>
+      </c>
+      <c r="C268" t="n">
+        <v>94</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>86</v>
+      </c>
+      <c r="B269" s="1" t="n">
+        <v>0.9122971590509259</v>
+      </c>
+      <c r="C269" t="n">
+        <v>94</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>87</v>
+      </c>
+      <c r="B270" s="1" t="n">
+        <v>0.9129910860185184</v>
+      </c>
+      <c r="C270" t="n">
+        <v>94</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>88</v>
+      </c>
+      <c r="B271" s="1" t="n">
+        <v>0.913685151875</v>
+      </c>
+      <c r="C271" t="n">
+        <v>94</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>89</v>
+      </c>
+      <c r="B272" s="1" t="n">
+        <v>0.9143793491550927</v>
+      </c>
+      <c r="C272" t="n">
+        <v>94</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>90</v>
+      </c>
+      <c r="B273" s="1" t="n">
+        <v>0.9150733897453703</v>
+      </c>
+      <c r="C273" t="n">
+        <v>94</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>91</v>
+      </c>
+      <c r="B274" s="1" t="n">
+        <v>0.9157676371527778</v>
+      </c>
+      <c r="C274" t="n">
+        <v>94</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>92</v>
+      </c>
+      <c r="B275" s="1" t="n">
+        <v>0.9164615353819444</v>
+      </c>
+      <c r="C275" t="n">
+        <v>94</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>93</v>
+      </c>
+      <c r="B276" s="1" t="n">
+        <v>0.9171558234953704</v>
+      </c>
+      <c r="C276" t="n">
+        <v>94</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>94</v>
+      </c>
+      <c r="B277" s="1" t="n">
+        <v>0.9178498488078703</v>
+      </c>
+      <c r="C277" t="n">
+        <v>94</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>95</v>
+      </c>
+      <c r="B278" s="1" t="n">
+        <v>0.9185439650347222</v>
+      </c>
+      <c r="C278" t="n">
+        <v>94</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>96</v>
+      </c>
+      <c r="B279" s="1" t="n">
+        <v>0.9192384065972222</v>
+      </c>
+      <c r="C279" t="n">
+        <v>94</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>97</v>
+      </c>
+      <c r="B280" s="1" t="n">
+        <v>0.9199322254166667</v>
+      </c>
+      <c r="C280" t="n">
+        <v>94</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>98</v>
+      </c>
+      <c r="B281" s="1" t="n">
+        <v>0.9206260311111111</v>
+      </c>
+      <c r="C281" t="n">
+        <v>94</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>99</v>
+      </c>
+      <c r="B282" s="1" t="n">
+        <v>0.9213198316435186</v>
+      </c>
+      <c r="C282" t="n">
+        <v>94</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>100</v>
+      </c>
+      <c r="B283" s="1" t="n">
+        <v>0.9220140016435184</v>
+      </c>
+      <c r="C283" t="n">
+        <v>94</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>101</v>
+      </c>
+      <c r="B284" s="1" t="n">
+        <v>0.9227082276157407</v>
+      </c>
+      <c r="C284" t="n">
+        <v>94</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>102</v>
+      </c>
+      <c r="B285" s="1" t="n">
+        <v>0.9234020329282407</v>
+      </c>
+      <c r="C285" t="n">
+        <v>94</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>103</v>
+      </c>
+      <c r="B286" s="1" t="n">
+        <v>0.9240961873842592</v>
+      </c>
+      <c r="C286" t="n">
+        <v>94</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>104</v>
+      </c>
+      <c r="B287" s="1" t="n">
+        <v>0.9247906304166666</v>
+      </c>
+      <c r="C287" t="n">
+        <v>94</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>105</v>
+      </c>
+      <c r="B288" s="1" t="n">
+        <v>0.9254844831944444</v>
+      </c>
+      <c r="C288" t="n">
+        <v>94</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>106</v>
+      </c>
+      <c r="B289" s="1" t="n">
+        <v>0.9261785308564815</v>
+      </c>
+      <c r="C289" t="n">
+        <v>94</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>107</v>
+      </c>
+      <c r="B290" s="1" t="n">
+        <v>0.9268729826967592</v>
+      </c>
+      <c r="C290" t="n">
+        <v>94</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0</v>
+      </c>
+      <c r="F290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>108</v>
+      </c>
+      <c r="B291" s="1" t="n">
+        <v>0.9275666843865741</v>
+      </c>
+      <c r="C291" t="n">
+        <v>94</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0</v>
+      </c>
+      <c r="F291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>109</v>
+      </c>
+      <c r="B292" s="1" t="n">
+        <v>0.9282610076157407</v>
+      </c>
+      <c r="C292" t="n">
+        <v>94</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0</v>
+      </c>
+      <c r="F292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>111</v>
+      </c>
+      <c r="B293" s="1" t="n">
+        <v>0.9296491085416666</v>
+      </c>
+      <c r="C293" t="n">
+        <v>94</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0</v>
+      </c>
+      <c r="F293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>113</v>
+      </c>
+      <c r="B294" s="1" t="n">
+        <v>0.9310369079976851</v>
+      </c>
+      <c r="C294" t="n">
+        <v>94</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>114</v>
+      </c>
+      <c r="B295" s="1" t="n">
+        <v>0.9317310844560185</v>
+      </c>
+      <c r="C295" t="n">
+        <v>94</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0</v>
+      </c>
+      <c r="F295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>115</v>
+      </c>
+      <c r="B296" s="1" t="n">
+        <v>0.9324250288657407</v>
+      </c>
+      <c r="C296" t="n">
+        <v>94</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0</v>
+      </c>
+      <c r="F296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>117</v>
+      </c>
+      <c r="B297" s="1" t="n">
+        <v>0.9338131827893518</v>
+      </c>
+      <c r="C297" t="n">
+        <v>94</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0</v>
+      </c>
+      <c r="F297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>118</v>
+      </c>
+      <c r="B298" s="1" t="n">
+        <v>0.9345075793055555</v>
+      </c>
+      <c r="C298" t="n">
+        <v>94</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>119</v>
+      </c>
+      <c r="B299" s="1" t="n">
+        <v>0.9352014665972221</v>
+      </c>
+      <c r="C299" t="n">
+        <v>94</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>120</v>
+      </c>
+      <c r="B300" s="1" t="n">
+        <v>0.9358955048842593</v>
+      </c>
+      <c r="C300" t="n">
+        <v>94</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>121</v>
+      </c>
+      <c r="B301" s="1" t="n">
+        <v>0.9365902211342593</v>
+      </c>
+      <c r="C301" t="n">
+        <v>94</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>122</v>
+      </c>
+      <c r="B302" s="1" t="n">
+        <v>0.9372835056944445</v>
+      </c>
+      <c r="C302" t="n">
+        <v>94</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>123</v>
+      </c>
+      <c r="B303" s="1" t="n">
+        <v>0.9379779667361111</v>
+      </c>
+      <c r="C303" t="n">
+        <v>94</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>124</v>
+      </c>
+      <c r="B304" s="1" t="n">
+        <v>0.9386718174537038</v>
+      </c>
+      <c r="C304" t="n">
+        <v>94</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>125</v>
+      </c>
+      <c r="B305" s="1" t="n">
+        <v>0.939366769837963</v>
+      </c>
+      <c r="C305" t="n">
+        <v>94</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>126</v>
+      </c>
+      <c r="B306" s="1" t="n">
+        <v>0.9400615804976852</v>
+      </c>
+      <c r="C306" t="n">
+        <v>94</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0</v>
+      </c>
+      <c r="F306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>127</v>
+      </c>
+      <c r="B307" s="1" t="n">
+        <v>0.9407540483796297</v>
+      </c>
+      <c r="C307" t="n">
+        <v>94</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>128</v>
+      </c>
+      <c r="B308" s="1" t="n">
+        <v>0.9414484995138889</v>
+      </c>
+      <c r="C308" t="n">
+        <v>94</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0</v>
+      </c>
+      <c r="F308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>129</v>
+      </c>
+      <c r="B309" s="1" t="n">
+        <v>0.942142388738426</v>
+      </c>
+      <c r="C309" t="n">
+        <v>94</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0</v>
+      </c>
+      <c r="F309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>130</v>
+      </c>
+      <c r="B310" s="1" t="n">
+        <v>0.9428362791087963</v>
+      </c>
+      <c r="C310" t="n">
+        <v>94</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0</v>
+      </c>
+      <c r="F310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>131</v>
+      </c>
+      <c r="B311" s="1" t="n">
+        <v>0.9435303055555556</v>
+      </c>
+      <c r="C311" t="n">
+        <v>94</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0</v>
+      </c>
+      <c r="F311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>132</v>
+      </c>
+      <c r="B312" s="1" t="n">
+        <v>0.9442243089814815</v>
+      </c>
+      <c r="C312" t="n">
+        <v>94</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0</v>
+      </c>
+      <c r="F312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>133</v>
+      </c>
+      <c r="B313" s="1" t="n">
+        <v>0.9449192672685186</v>
+      </c>
+      <c r="C313" t="n">
+        <v>94</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0</v>
+      </c>
+      <c r="F313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>134</v>
+      </c>
+      <c r="B314" s="1" t="n">
+        <v>0.9456124133912037</v>
+      </c>
+      <c r="C314" t="n">
+        <v>94</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E314" t="n">
+        <v>0</v>
+      </c>
+      <c r="F314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>135</v>
+      </c>
+      <c r="B315" s="1" t="n">
+        <v>0.9463066549768518</v>
+      </c>
+      <c r="C315" t="n">
+        <v>94</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E315" t="n">
+        <v>0</v>
+      </c>
+      <c r="F315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>136</v>
+      </c>
+      <c r="B316" s="1" t="n">
+        <v>0.9470005867592592</v>
+      </c>
+      <c r="C316" t="n">
+        <v>94</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E316" t="n">
+        <v>0</v>
+      </c>
+      <c r="F316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>138</v>
+      </c>
+      <c r="B317" s="1" t="n">
+        <v>0.9483885606365741</v>
+      </c>
+      <c r="C317" t="n">
+        <v>94</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>139</v>
+      </c>
+      <c r="B318" s="1" t="n">
+        <v>0.9490827818171297</v>
+      </c>
+      <c r="C318" t="n">
+        <v>94</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0</v>
+      </c>
+      <c r="F318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>141</v>
+      </c>
+      <c r="B319" s="1" t="n">
+        <v>0.9504711809953704</v>
+      </c>
+      <c r="C319" t="n">
+        <v>94</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>143</v>
+      </c>
+      <c r="B320" s="1" t="n">
+        <v>0.9518591495717592</v>
+      </c>
+      <c r="C320" t="n">
+        <v>94</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0</v>
+      </c>
+      <c r="F320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>144</v>
+      </c>
+      <c r="B321" s="1" t="n">
+        <v>0.9525532893750001</v>
+      </c>
+      <c r="C321" t="n">
+        <v>94</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0</v>
+      </c>
+      <c r="F321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>145</v>
+      </c>
+      <c r="B322" s="1" t="n">
+        <v>0.9532471076967592</v>
+      </c>
+      <c r="C322" t="n">
+        <v>94</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0</v>
+      </c>
+      <c r="F322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>146</v>
+      </c>
+      <c r="B323" s="1" t="n">
+        <v>0.9539410237962962</v>
+      </c>
+      <c r="C323" t="n">
+        <v>94</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E323" t="n">
+        <v>0</v>
+      </c>
+      <c r="F323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>147</v>
+      </c>
+      <c r="B324" s="1" t="n">
+        <v>0.9546358074074075</v>
+      </c>
+      <c r="C324" t="n">
+        <v>94</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E324" t="n">
+        <v>0</v>
+      </c>
+      <c r="F324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>148</v>
+      </c>
+      <c r="B325" s="1" t="n">
+        <v>0.9553294276041667</v>
+      </c>
+      <c r="C325" t="n">
+        <v>94</v>
+      </c>
+      <c r="D325" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E325" t="n">
+        <v>0</v>
+      </c>
+      <c r="F325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>149</v>
+      </c>
+      <c r="B326" s="1" t="n">
+        <v>0.9560240260416667</v>
+      </c>
+      <c r="C326" t="n">
+        <v>94</v>
+      </c>
+      <c r="D326" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E326" t="n">
+        <v>0</v>
+      </c>
+      <c r="F326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>150</v>
+      </c>
+      <c r="B327" s="1" t="n">
+        <v>0.9567175871064814</v>
+      </c>
+      <c r="C327" t="n">
+        <v>94</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0</v>
+      </c>
+      <c r="F327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>151</v>
+      </c>
+      <c r="B328" s="1" t="n">
+        <v>0.9574116351736112</v>
+      </c>
+      <c r="C328" t="n">
+        <v>94</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0</v>
+      </c>
+      <c r="F328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>152</v>
+      </c>
+      <c r="B329" s="1" t="n">
+        <v>0.9581061544212963</v>
+      </c>
+      <c r="C329" t="n">
+        <v>94</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E329" t="n">
+        <v>0</v>
+      </c>
+      <c r="F329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>153</v>
+      </c>
+      <c r="B330" s="1" t="n">
+        <v>0.9587997278125</v>
+      </c>
+      <c r="C330" t="n">
+        <v>94</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E330" t="n">
+        <v>0</v>
+      </c>
+      <c r="F330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>154</v>
+      </c>
+      <c r="B331" s="1" t="n">
+        <v>0.9594960205787036</v>
+      </c>
+      <c r="C331" t="n">
+        <v>94</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>155</v>
+      </c>
+      <c r="B332" s="1" t="n">
+        <v>0.9601918801504631</v>
+      </c>
+      <c r="C332" t="n">
+        <v>94</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E332" t="n">
+        <v>0</v>
+      </c>
+      <c r="F332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>157</v>
+      </c>
+      <c r="B333" s="1" t="n">
+        <v>0.9615759947106481</v>
+      </c>
+      <c r="C333" t="n">
+        <v>94</v>
+      </c>
+      <c r="D333" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E333" t="n">
+        <v>0</v>
+      </c>
+      <c r="F333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>158</v>
+      </c>
+      <c r="B334" s="1" t="n">
+        <v>0.9622700390856481</v>
+      </c>
+      <c r="C334" t="n">
+        <v>94</v>
+      </c>
+      <c r="D334" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E334" t="n">
+        <v>0</v>
+      </c>
+      <c r="F334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>159</v>
+      </c>
+      <c r="B335" s="1" t="n">
+        <v>0.962964305</v>
+      </c>
+      <c r="C335" t="n">
+        <v>94</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E335" t="n">
+        <v>0</v>
+      </c>
+      <c r="F335" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>160</v>
+      </c>
+      <c r="B336" s="1" t="n">
+        <v>0.9636582088078705</v>
+      </c>
+      <c r="C336" t="n">
+        <v>94</v>
+      </c>
+      <c r="D336" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E336" t="n">
+        <v>0</v>
+      </c>
+      <c r="F336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>161</v>
+      </c>
+      <c r="B337" s="1" t="n">
+        <v>0.9643523276967593</v>
+      </c>
+      <c r="C337" t="n">
+        <v>94</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E337" t="n">
+        <v>0</v>
+      </c>
+      <c r="F337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>162</v>
+      </c>
+      <c r="B338" s="1" t="n">
+        <v>0.9650465814351852</v>
+      </c>
+      <c r="C338" t="n">
+        <v>94</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E338" t="n">
+        <v>0</v>
+      </c>
+      <c r="F338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>163</v>
+      </c>
+      <c r="B339" s="1" t="n">
+        <v>0.9657404678240742</v>
+      </c>
+      <c r="C339" t="n">
+        <v>94</v>
+      </c>
+      <c r="D339" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>164</v>
+      </c>
+      <c r="B340" s="1" t="n">
+        <v>0.9664346504398148</v>
+      </c>
+      <c r="C340" t="n">
+        <v>94</v>
+      </c>
+      <c r="D340" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E340" t="n">
+        <v>0</v>
+      </c>
+      <c r="F340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>165</v>
+      </c>
+      <c r="B341" s="1" t="n">
+        <v>0.9671284443634259</v>
+      </c>
+      <c r="C341" t="n">
+        <v>94</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E341" t="n">
+        <v>0</v>
+      </c>
+      <c r="F341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>166</v>
+      </c>
+      <c r="B342" s="1" t="n">
+        <v>0.9678231410069444</v>
+      </c>
+      <c r="C342" t="n">
+        <v>94</v>
+      </c>
+      <c r="D342" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E342" t="n">
+        <v>0</v>
+      </c>
+      <c r="F342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>167</v>
+      </c>
+      <c r="B343" s="1" t="n">
+        <v>0.9685166340046296</v>
+      </c>
+      <c r="C343" t="n">
+        <v>94</v>
+      </c>
+      <c r="D343" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E343" t="n">
+        <v>0</v>
+      </c>
+      <c r="F343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>168</v>
+      </c>
+      <c r="B344" s="1" t="n">
+        <v>0.9692110159375</v>
+      </c>
+      <c r="C344" t="n">
+        <v>94</v>
+      </c>
+      <c r="D344" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>169</v>
+      </c>
+      <c r="B345" s="1" t="n">
+        <v>0.9699053373263888</v>
+      </c>
+      <c r="C345" t="n">
+        <v>94</v>
+      </c>
+      <c r="D345" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E345" t="n">
+        <v>0</v>
+      </c>
+      <c r="F345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>170</v>
+      </c>
+      <c r="B346" s="1" t="n">
+        <v>0.9705993360532407</v>
+      </c>
+      <c r="C346" t="n">
+        <v>94</v>
+      </c>
+      <c r="D346" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E346" t="n">
+        <v>0</v>
+      </c>
+      <c r="F346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>171</v>
+      </c>
+      <c r="B347" s="1" t="n">
+        <v>0.9712933945023148</v>
+      </c>
+      <c r="C347" t="n">
+        <v>94</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E347" t="n">
+        <v>0</v>
+      </c>
+      <c r="F347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>173</v>
+      </c>
+      <c r="B348" s="1" t="n">
+        <v>0.9726822726157407</v>
+      </c>
+      <c r="C348" t="n">
+        <v>94</v>
+      </c>
+      <c r="D348" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E348" t="n">
+        <v>0</v>
+      </c>
+      <c r="F348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>174</v>
+      </c>
+      <c r="B349" s="1" t="n">
+        <v>0.9733751722569445</v>
+      </c>
+      <c r="C349" t="n">
+        <v>94</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E349" t="n">
+        <v>0</v>
+      </c>
+      <c r="F349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>175</v>
+      </c>
+      <c r="B350" s="1" t="n">
+        <v>0.9740693779282408</v>
+      </c>
+      <c r="C350" t="n">
+        <v>94</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E350" t="n">
+        <v>0</v>
+      </c>
+      <c r="F350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>176</v>
+      </c>
+      <c r="B351" s="1" t="n">
+        <v>0.974763467962963</v>
+      </c>
+      <c r="C351" t="n">
+        <v>94</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E351" t="n">
+        <v>0</v>
+      </c>
+      <c r="F351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>177</v>
+      </c>
+      <c r="B352" s="1" t="n">
+        <v>0.9754573506828703</v>
+      </c>
+      <c r="C352" t="n">
+        <v>94</v>
+      </c>
+      <c r="D352" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E352" t="n">
+        <v>0</v>
+      </c>
+      <c r="F352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>178</v>
+      </c>
+      <c r="B353" s="1" t="n">
+        <v>0.9761513502083333</v>
+      </c>
+      <c r="C353" t="n">
+        <v>94</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E353" t="n">
+        <v>0</v>
+      </c>
+      <c r="F353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>179</v>
+      </c>
+      <c r="B354" s="1" t="n">
+        <v>0.9768455780324073</v>
+      </c>
+      <c r="C354" t="n">
+        <v>94</v>
+      </c>
+      <c r="D354" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E354" t="n">
+        <v>0</v>
+      </c>
+      <c r="F354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>180</v>
+      </c>
+      <c r="B355" s="1" t="n">
+        <v>0.9775395452083334</v>
+      </c>
+      <c r="C355" t="n">
+        <v>94</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E355" t="n">
+        <v>0</v>
+      </c>
+      <c r="F355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>181</v>
+      </c>
+      <c r="B356" s="1" t="n">
+        <v>0.9782347749537037</v>
+      </c>
+      <c r="C356" t="n">
+        <v>94</v>
+      </c>
+      <c r="D356" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E356" t="n">
+        <v>0</v>
+      </c>
+      <c r="F356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>182</v>
+      </c>
+      <c r="B357" s="1" t="n">
+        <v>0.9789279389930555</v>
+      </c>
+      <c r="C357" t="n">
+        <v>94</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E357" t="n">
+        <v>0</v>
+      </c>
+      <c r="F357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>183</v>
+      </c>
+      <c r="B358" s="1" t="n">
+        <v>0.9796219032407407</v>
+      </c>
+      <c r="C358" t="n">
+        <v>94</v>
+      </c>
+      <c r="D358" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E358" t="n">
+        <v>0</v>
+      </c>
+      <c r="F358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>184</v>
+      </c>
+      <c r="B359" s="1" t="n">
+        <v>0.980316192361111</v>
+      </c>
+      <c r="C359" t="n">
+        <v>94</v>
+      </c>
+      <c r="D359" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E359" t="n">
+        <v>0</v>
+      </c>
+      <c r="F359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>185</v>
+      </c>
+      <c r="B360" s="1" t="n">
+        <v>0.9810100205439816</v>
+      </c>
+      <c r="C360" t="n">
+        <v>94</v>
+      </c>
+      <c r="D360" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E360" t="n">
+        <v>0</v>
+      </c>
+      <c r="F360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>186</v>
+      </c>
+      <c r="B361" s="1" t="n">
+        <v>0.9817043533101851</v>
+      </c>
+      <c r="C361" t="n">
+        <v>94</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E361" t="n">
+        <v>0</v>
+      </c>
+      <c r="F361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>187</v>
+      </c>
+      <c r="B362" s="1" t="n">
+        <v>0.9823989398263888</v>
+      </c>
+      <c r="C362" t="n">
+        <v>94</v>
+      </c>
+      <c r="D362" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E362" t="n">
+        <v>0</v>
+      </c>
+      <c r="F362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>188</v>
+      </c>
+      <c r="B363" s="1" t="n">
+        <v>0.9830926650925925</v>
+      </c>
+      <c r="C363" t="n">
+        <v>94</v>
+      </c>
+      <c r="D363" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E363" t="n">
+        <v>0</v>
+      </c>
+      <c r="F363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>189</v>
+      </c>
+      <c r="B364" s="1" t="n">
+        <v>0.9837872850925926</v>
+      </c>
+      <c r="C364" t="n">
+        <v>94</v>
+      </c>
+      <c r="D364" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E364" t="n">
+        <v>0</v>
+      </c>
+      <c r="F364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>190</v>
+      </c>
+      <c r="B365" s="1" t="n">
+        <v>0.984480370625</v>
+      </c>
+      <c r="C365" t="n">
+        <v>94</v>
+      </c>
+      <c r="D365" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E365" t="n">
+        <v>0</v>
+      </c>
+      <c r="F365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>191</v>
+      </c>
+      <c r="B366" s="1" t="n">
+        <v>0.9851748896759259</v>
+      </c>
+      <c r="C366" t="n">
+        <v>94</v>
+      </c>
+      <c r="D366" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E366" t="n">
+        <v>0</v>
+      </c>
+      <c r="F366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>192</v>
+      </c>
+      <c r="B367" s="1" t="n">
+        <v>0.9858692709953704</v>
+      </c>
+      <c r="C367" t="n">
+        <v>94</v>
+      </c>
+      <c r="D367" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E367" t="n">
+        <v>0</v>
+      </c>
+      <c r="F367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>193</v>
+      </c>
+      <c r="B368" s="1" t="n">
+        <v>0.9865626338078705</v>
+      </c>
+      <c r="C368" t="n">
+        <v>94</v>
+      </c>
+      <c r="D368" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E368" t="n">
+        <v>0</v>
+      </c>
+      <c r="F368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>194</v>
+      </c>
+      <c r="B369" s="1" t="n">
+        <v>0.9872570126851852</v>
+      </c>
+      <c r="C369" t="n">
+        <v>94</v>
+      </c>
+      <c r="D369" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E369" t="n">
+        <v>0</v>
+      </c>
+      <c r="F369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>195</v>
+      </c>
+      <c r="B370" s="1" t="n">
+        <v>0.9879509299999999</v>
+      </c>
+      <c r="C370" t="n">
+        <v>94</v>
+      </c>
+      <c r="D370" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E370" t="n">
+        <v>0</v>
+      </c>
+      <c r="F370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>196</v>
+      </c>
+      <c r="B371" s="1" t="n">
+        <v>0.9886448685185185</v>
+      </c>
+      <c r="C371" t="n">
+        <v>94</v>
+      </c>
+      <c r="D371" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E371" t="n">
+        <v>0</v>
+      </c>
+      <c r="F371" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>197</v>
+      </c>
+      <c r="B372" s="1" t="n">
+        <v>0.9893393153935185</v>
+      </c>
+      <c r="C372" t="n">
+        <v>94</v>
+      </c>
+      <c r="D372" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E372" t="n">
+        <v>0</v>
+      </c>
+      <c r="F372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>198</v>
+      </c>
+      <c r="B373" s="1" t="n">
+        <v>0.990039073287037</v>
+      </c>
+      <c r="C373" t="n">
+        <v>94</v>
+      </c>
+      <c r="D373" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E373" t="n">
+        <v>0</v>
+      </c>
+      <c r="F373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>200</v>
+      </c>
+      <c r="B374" s="1" t="n">
+        <v>0.9914212923611112</v>
+      </c>
+      <c r="C374" t="n">
+        <v>94</v>
+      </c>
+      <c r="D374" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E374" t="n">
+        <v>0</v>
+      </c>
+      <c r="F374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>201</v>
+      </c>
+      <c r="B375" s="1" t="n">
+        <v>0.9921156038425926</v>
+      </c>
+      <c r="C375" t="n">
+        <v>94</v>
+      </c>
+      <c r="D375" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E375" t="n">
+        <v>0</v>
+      </c>
+      <c r="F375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>202</v>
+      </c>
+      <c r="B376" s="1" t="n">
+        <v>0.9928091077430555</v>
+      </c>
+      <c r="C376" t="n">
+        <v>94</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E376" t="n">
+        <v>0</v>
+      </c>
+      <c r="F376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>204</v>
+      </c>
+      <c r="B377" s="1" t="n">
+        <v>0.9941978297800925</v>
+      </c>
+      <c r="C377" t="n">
+        <v>94</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E377" t="n">
+        <v>0</v>
+      </c>
+      <c r="F377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>205</v>
+      </c>
+      <c r="B378" s="1" t="n">
+        <v>0.9948914693055556</v>
+      </c>
+      <c r="C378" t="n">
+        <v>94</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E378" t="n">
+        <v>0</v>
+      </c>
+      <c r="F378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>206</v>
+      </c>
+      <c r="B379" s="1" t="n">
+        <v>0.9955855015277777</v>
+      </c>
+      <c r="C379" t="n">
+        <v>94</v>
+      </c>
+      <c r="D379" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E379" t="n">
+        <v>0</v>
+      </c>
+      <c r="F379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>207</v>
+      </c>
+      <c r="B380" s="1" t="n">
+        <v>0.9962795247685186</v>
+      </c>
+      <c r="C380" t="n">
+        <v>94</v>
+      </c>
+      <c r="D380" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E380" t="n">
+        <v>0</v>
+      </c>
+      <c r="F380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>208</v>
+      </c>
+      <c r="B381" s="1" t="n">
+        <v>0.9969780250462964</v>
+      </c>
+      <c r="C381" t="n">
+        <v>94</v>
+      </c>
+      <c r="D381" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E381" t="n">
+        <v>0</v>
+      </c>
+      <c r="F381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>209</v>
+      </c>
+      <c r="B382" s="1" t="n">
+        <v>0.9976682717013889</v>
+      </c>
+      <c r="C382" t="n">
+        <v>94</v>
+      </c>
+      <c r="D382" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E382" t="n">
+        <v>0</v>
+      </c>
+      <c r="F382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>210</v>
+      </c>
+      <c r="B383" s="1" t="n">
+        <v>0.9983640808101851</v>
+      </c>
+      <c r="C383" t="n">
+        <v>94</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E383" t="n">
+        <v>0</v>
+      </c>
+      <c r="F383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>211</v>
+      </c>
+      <c r="B384" s="1" t="n">
+        <v>0.9990572251041666</v>
+      </c>
+      <c r="C384" t="n">
+        <v>94</v>
+      </c>
+      <c r="D384" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E384" t="n">
+        <v>0</v>
+      </c>
+      <c r="F384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>212</v>
+      </c>
+      <c r="B385" s="1" t="n">
+        <v>0.9997535682407407</v>
+      </c>
+      <c r="C385" t="n">
+        <v>94</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E385" t="n">
+        <v>0</v>
+      </c>
+      <c r="F385" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
